--- a/dataset/photovoltaic/PreSchool/2022_8/1.xlsx
+++ b/dataset/photovoltaic/PreSchool/2022_8/1.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,7 +408,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>44774.33333333334</v>
+        <v>44774</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -416,126 +416,190 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>44774.375</v>
+        <v>44774.04166666666</v>
       </c>
       <c r="B6">
-        <v>3.353372781056957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>44774.41666666666</v>
+        <v>44774.08333333334</v>
       </c>
       <c r="B7">
-        <v>5.030059171605765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>44774.45833333334</v>
+        <v>44774.125</v>
       </c>
       <c r="B8">
-        <v>8.383431952662722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>44774.5</v>
+        <v>44774.16666666666</v>
       </c>
       <c r="B9">
-        <v>9.501222879668152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>44774.54166666666</v>
+        <v>44774.20833333334</v>
       </c>
       <c r="B10">
-        <v>24.03250493098274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>44774.58333333334</v>
+        <v>44774.25</v>
       </c>
       <c r="B11">
-        <v>25.42974358975986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>44774.625</v>
+        <v>44774.29166666666</v>
       </c>
       <c r="B12">
-        <v>11.17790927021696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>44774.66666666666</v>
+        <v>44774.33333333334</v>
       </c>
       <c r="B13">
-        <v>12.29570019722239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>44774.70833333334</v>
+        <v>44774.375</v>
       </c>
       <c r="B14">
-        <v>10.89846153844527</v>
+        <v>3.353372781056957</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>44774.75</v>
+        <v>44774.41666666666</v>
       </c>
       <c r="B15">
-        <v>4.471163708103052</v>
+        <v>5.030059171605765</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>44774.79166666666</v>
+        <v>44774.45833333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>8.383431952662722</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>44774.83333333334</v>
+        <v>44774.5</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>9.501222879668152</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>44774.875</v>
+        <v>44774.54166666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>24.03250493098274</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>44774.91666666666</v>
+        <v>44774.58333333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>25.42974358975986</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
+        <v>44774.625</v>
+      </c>
+      <c r="B20">
+        <v>11.17790927021696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>44774.66666666666</v>
+      </c>
+      <c r="B21">
+        <v>12.29570019722239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>44774.70833333334</v>
+      </c>
+      <c r="B22">
+        <v>10.89846153844527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>44774.75</v>
+      </c>
+      <c r="B23">
+        <v>4.471163708103052</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>44774.79166666666</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>44774.83333333334</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>44774.875</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>44774.91666666666</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>44774.95833333334</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
